--- a/data/trans_orig/P16A_2_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A_2_R3-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>187399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>165662</v>
+        <v>163287</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>214002</v>
+        <v>211866</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2713139996795678</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.239842517254564</v>
+        <v>0.2364039889798032</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3098284208647548</v>
+        <v>0.306736080444622</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>557</v>
@@ -762,19 +762,19 @@
         <v>288764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>268517</v>
+        <v>267976</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>312986</v>
+        <v>310037</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3933144359751812</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3657378075807199</v>
+        <v>0.365000969598801</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4263070206270568</v>
+        <v>0.4222898015679085</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>772</v>
@@ -783,19 +783,19 @@
         <v>476163</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>443942</v>
+        <v>446729</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>507034</v>
+        <v>513133</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.334175200559162</v>
+        <v>0.3341752005591621</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3115625754255181</v>
+        <v>0.3135185516890385</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3558412045968736</v>
+        <v>0.3601212087968103</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>503311</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>476708</v>
+        <v>478844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>525048</v>
+        <v>527423</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7286860003204322</v>
+        <v>0.7286860003204323</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6901715791352453</v>
+        <v>0.6932639195553779</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7601574827454359</v>
+        <v>0.7635960110201966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>684</v>
@@ -833,19 +833,19 @@
         <v>445416</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>421194</v>
+        <v>424143</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>465663</v>
+        <v>466204</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6066855640248188</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5736929793729431</v>
+        <v>0.5777101984320913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6342621924192801</v>
+        <v>0.634999030401199</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1199</v>
@@ -854,19 +854,19 @@
         <v>948726</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>917855</v>
+        <v>911756</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>980947</v>
+        <v>978160</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6658247994408379</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6441587954031265</v>
+        <v>0.6398787912031898</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6884374245744823</v>
+        <v>0.6864814483109615</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>220288</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>193524</v>
+        <v>193196</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>248391</v>
+        <v>248841</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2100149625179232</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1844990771129561</v>
+        <v>0.1841858483794147</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.236806817396374</v>
+        <v>0.2372358464879056</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>647</v>
@@ -979,19 +979,19 @@
         <v>414652</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>386632</v>
+        <v>386289</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>441197</v>
+        <v>444533</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3869919927170225</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3608416122245788</v>
+        <v>0.360520800267569</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4117660060061802</v>
+        <v>0.4148800089256055</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>874</v>
@@ -1000,19 +1000,19 @@
         <v>634940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>596385</v>
+        <v>591045</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>672130</v>
+        <v>672276</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2994448365341933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2812617942887964</v>
+        <v>0.2787435046685047</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.316983795378841</v>
+        <v>0.3170529330605451</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>828629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>800526</v>
+        <v>800076</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>855393</v>
+        <v>855721</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7899850374820769</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7631931826036262</v>
+        <v>0.7627641535120947</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8155009228870442</v>
+        <v>0.8158141516205855</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>870</v>
@@ -1050,19 +1050,19 @@
         <v>656822</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>630277</v>
+        <v>626941</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>684842</v>
+        <v>685185</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6130080072829774</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5882339939938198</v>
+        <v>0.5851199910743942</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6391583877754212</v>
+        <v>0.6394791997324306</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1607</v>
@@ -1071,19 +1071,19 @@
         <v>1485451</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1448261</v>
+        <v>1448115</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1524006</v>
+        <v>1529346</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7005551634658065</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6830162046211589</v>
+        <v>0.6829470669394548</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7187382057112036</v>
+        <v>0.7212564953314952</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>178478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>153486</v>
+        <v>155052</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>206389</v>
+        <v>207593</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2222435962925894</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1911229898742649</v>
+        <v>0.1930730936415316</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2569996682622082</v>
+        <v>0.2584980823964496</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>416</v>
@@ -1196,19 +1196,19 @@
         <v>293310</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>269968</v>
+        <v>268938</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>316227</v>
+        <v>316691</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3611036184095837</v>
+        <v>0.3611036184095838</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3323665939472123</v>
+        <v>0.3310985010933028</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3893181190831202</v>
+        <v>0.3898897855660597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>582</v>
@@ -1217,19 +1217,19 @@
         <v>471787</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>434963</v>
+        <v>435533</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>508299</v>
+        <v>506720</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2920684257827443</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2692713999798487</v>
+        <v>0.2696241477550169</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3146714660957155</v>
+        <v>0.3136940677460195</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>624595</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>596684</v>
+        <v>595480</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>649587</v>
+        <v>648021</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7777564037074106</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7430003317377917</v>
+        <v>0.7415019176035503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8088770101257351</v>
+        <v>0.8069269063584684</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>631</v>
@@ -1267,19 +1267,19 @@
         <v>518949</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>496032</v>
+        <v>495568</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>542291</v>
+        <v>543321</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6388963815904163</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6106818809168798</v>
+        <v>0.6101102144339403</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6676334060527878</v>
+        <v>0.6689014989066974</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1141</v>
@@ -1288,19 +1288,19 @@
         <v>1143545</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1107033</v>
+        <v>1108612</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1180369</v>
+        <v>1179799</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7079315742172557</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6853285339042845</v>
+        <v>0.6863059322539804</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7307286000201513</v>
+        <v>0.7303758522449831</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>241870</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>212889</v>
+        <v>215195</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>270551</v>
+        <v>273428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2442979498517734</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2150261360929651</v>
+        <v>0.2173551699007608</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2732669300040125</v>
+        <v>0.2761722978086332</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>672</v>
@@ -1413,19 +1413,19 @@
         <v>442915</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>413193</v>
+        <v>413000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>468614</v>
+        <v>469758</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3957985748302288</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3692381139524278</v>
+        <v>0.3690662743270443</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.41876378493653</v>
+        <v>0.4197862973022324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>937</v>
@@ -1434,19 +1434,19 @@
         <v>684785</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>647722</v>
+        <v>646891</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>726409</v>
+        <v>725657</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3246806623592867</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.307107515756522</v>
+        <v>0.3067137877850317</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3444160687874409</v>
+        <v>0.3440595233787586</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>748192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>719511</v>
+        <v>716634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>777173</v>
+        <v>774867</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7557020501482266</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7267330699959875</v>
+        <v>0.7238277021913667</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7849738639070351</v>
+        <v>0.7826448300992394</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>890</v>
@@ -1484,19 +1484,19 @@
         <v>676126</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>650427</v>
+        <v>649283</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>705848</v>
+        <v>706041</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6042014251697712</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5812362150634706</v>
+        <v>0.5802137026977678</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6307618860475723</v>
+        <v>0.6309337256729561</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1631</v>
@@ -1505,19 +1505,19 @@
         <v>1424319</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1382695</v>
+        <v>1383447</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1461382</v>
+        <v>1462213</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6753193376407134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6555839312125593</v>
+        <v>0.6559404766212412</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6928924842434783</v>
+        <v>0.6932862122149683</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>828035</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>778995</v>
+        <v>774614</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>883192</v>
+        <v>888208</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2343875668078073</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2205059173152155</v>
+        <v>0.2192657142338669</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2500003067216884</v>
+        <v>0.251420363277917</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2292</v>
@@ -1630,19 +1630,19 @@
         <v>1439640</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1388686</v>
+        <v>1387524</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1492286</v>
+        <v>1489093</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3852442282092558</v>
+        <v>0.3852442282092557</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3716091974299672</v>
+        <v>0.3712981889071949</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.399332062798248</v>
+        <v>0.3984778390431452</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3165</v>
@@ -1651,19 +1651,19 @@
         <v>2267675</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2193879</v>
+        <v>2196826</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2343814</v>
+        <v>2351763</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3119345333659548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3017833033591725</v>
+        <v>0.3021886901114751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3224079061697446</v>
+        <v>0.323501419293903</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2704727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2649570</v>
+        <v>2644554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2753767</v>
+        <v>2758148</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.765612433192193</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7499996932783118</v>
+        <v>0.7485796367220827</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7794940826847847</v>
+        <v>0.7807342857661329</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3075</v>
@@ -1701,19 +1701,19 @@
         <v>2297314</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2244668</v>
+        <v>2247861</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2348268</v>
+        <v>2349430</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6147557717907444</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6006679372017519</v>
+        <v>0.6015221609568548</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6283908025700325</v>
+        <v>0.6287018110928051</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5578</v>
@@ -1722,19 +1722,19 @@
         <v>5002041</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4925902</v>
+        <v>4917953</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5075837</v>
+        <v>5072890</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6880654666340453</v>
+        <v>0.6880654666340452</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6775920938302553</v>
+        <v>0.676498580706097</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6982166966408274</v>
+        <v>0.6978113098885251</v>
       </c>
     </row>
     <row r="18">
